--- a/Documentation/Project Management/WBS v0.1 08042012.xlsx
+++ b/Documentation/Project Management/WBS v0.1 08042012.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="315" windowWidth="18915" windowHeight="8220" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Requirement</t>
   </si>
@@ -43,6 +43,60 @@
   </si>
   <si>
     <t>Dat/Huy</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Remaining hours</t>
+  </si>
+  <si>
+    <t>Base line hours</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Charting resize</t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>Code tested</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Bug fix</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Data extraction</t>
+  </si>
+  <si>
+    <t>Huy, Dat</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
+  <si>
+    <t>Reports requirement</t>
+  </si>
+  <si>
+    <t>DuyAnh, Thuy</t>
+  </si>
+  <si>
+    <t>Doc</t>
   </si>
 </sst>
 </file>
@@ -78,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,14 +495,108 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41124</v>
       </c>
     </row>
   </sheetData>
